--- a/data/trans_camb/P6905-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6905-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,5</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-32,28; 11,72</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-27,42; 25,05</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-35,86; 10,75</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-41,62; 8,65</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,94; 4,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,7; 11,56</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-23,42%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-6,9%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-21,16%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-26,81%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,62%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-58,6; 43,37</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-56,97; 78,48</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-48,91; 20,52</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-57,22; 14,65</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,45; 11,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,16; 28,3</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,71</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,3; 24,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,84; 22,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,3; 16,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,56; 14,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,62; 37,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,08; 49,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,38; 14,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 23,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 28,98</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,05%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,17; 163,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,87; 165,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,21; 117,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,16; 109,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,33; 252,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,33; 328,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,31; 77,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 138,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 161,94</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,66</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,76; 26,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,52; 6,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,19; -6,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,94; 30,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,89; 20,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,06; 17,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,24; 18,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,48; 6,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,42; 0,49</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,2%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-58,49; 193,88</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 65,75</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -11,66</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 330,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,84; 299,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,96; 130,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,61; 52,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,47; 5,84</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,5</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,95</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,06</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,17; 22,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,45; 37,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,68; 36,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,44; 48,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,68; 47,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,47; 26,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,51; 28,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,93; 36,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,07; 24,37</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,63%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,6%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,11%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,34%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,6%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,28; 145,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,22; 236,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,83; 216,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,51; 297,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,97; 289,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,43; 140,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,98; 148,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,75; 180,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,05; 124,86</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,8</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,93</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,96</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-42,69</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,42</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,93</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,34; 22,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,66; 52,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,8; 11,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,99; 58,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,23; 58,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,63; -2,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,78; 33,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,82; 45,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,23; 0,21</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,07%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,01%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,91%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,68%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,21%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,24%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 236,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,1; 530,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,96; 118,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,11; 322,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,48; 266,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,19; 22,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,94; 179,54</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,98; 231,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,0; 18,55</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,26</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-33,59</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-40,22</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,85</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-39,74</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,26</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,99</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,86</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,88; -5,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,7; -10,22</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,57; -6,26</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,72; -6,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,51; 29,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,91; -8,57</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,24; -9,88</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,42; -7,02</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,11; -12,65</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,76%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,69%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,62%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,8%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,96%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,06%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,93%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,28%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,1%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,75; -11,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,9; -21,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,81; -10,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,88; -12,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,9; 63,49</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,6; -22,81</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,38; -21,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,84; -14,17</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,75; -27,38</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,93</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,82</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,57</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,48</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,5; 11,93</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,6; -2,93</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,36; 6,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,81; 25,28</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,9; 16,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,15; 19,12</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,81; 13,21</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,42; 0,69</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,72; 7,8</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,67%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,7%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,9%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,15%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,34%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,08%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,94; 45,97</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,99; -11,32</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,39; 26,85</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,75; 92,22</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,86; 57,73</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,15; 68,73</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,74; 44,45</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,83; 4,35</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,47; 27,88</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,02</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,71</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,4</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,36</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,26</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,36; -0,02</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,59; 16,61</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,23; 13,32</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,04; 16,47</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,46; -0,24</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,36; 14,82</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,6; 4,07</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,31; 6,02</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,92; 9,92</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,52%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,36%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,3%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,11%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,27%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,6%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,81%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,65%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,58; 5,72</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,91; 78,91</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,7; 69,19</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,38; 47,19</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,84; 15,31</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,79; 46,76</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,48; 15,77</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,65; 23,36</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,97; 38,39</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,9</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,93; 2,39</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,49; 3,3</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,16; -0,79</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; 9,7</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 11,88</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,57; 3,34</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,24; 4,38</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,47; 3,96</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 0,06</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,5%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,53%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,25%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,66%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,62%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,63; 8,85</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,6; 12,35</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,02; -2,96</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,32; 26,44</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,72; 32,49</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,98; 10,06</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,6; 14,44</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,03; 12,94</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,33; 0,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6905-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,18</t>
+          <t>-16,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>-6,91</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,32; 27,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 25,05</t>
+          <t>-25,87; 28,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,73; 27,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,62; 8,65</t>
+          <t>-40,77; 9,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,21; 23,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 11,56</t>
+          <t>-24,96; 14,43</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,9%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-26,81%</t>
+          <t>-25,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-16,62%</t>
+          <t>-13,51%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,3; 89,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,97; 78,48</t>
+          <t>-53,44; 87,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,83; 56,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,22; 14,65</t>
+          <t>-56,82; 16,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,49; 57,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 28,3</t>
+          <t>-42,68; 33,96</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,9</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,93</t>
+          <t>29,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,54</t>
+          <t>13,02</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 16,73</t>
+          <t>-20,96; 18,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,08; 49,34</t>
+          <t>10,93; 48,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 28,98</t>
+          <t>-1,03; 28,64</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-20,64%</t>
+          <t>-18,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>113,23%</t>
+          <t>112,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>55,05%</t>
+          <t>52,95%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,21; 117,98</t>
+          <t>-69,94; 131,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,33; 328,99</t>
+          <t>24,44; 326,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 161,94</t>
+          <t>-4,55; 161,37</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-21,48</t>
+          <t>-21,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-11,25</t>
+          <t>-11,38</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-39,19; -6,6</t>
+          <t>-39,21; -6,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 17,51</t>
+          <t>-21,01; 17,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 0,49</t>
+          <t>-24,57; 0,32</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-84,17%</t>
+          <t>-84,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-49,2%</t>
+          <t>-49,78%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -11,66</t>
+          <t>-100,0; -12,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,84; 299,91</t>
+          <t>-63,51; 302,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,47; 5,84</t>
+          <t>-75,8; 3,85</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>-7,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,65</t>
+          <t>14,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,21</t>
+          <t>16,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>-7,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,95</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,88</t>
+          <t>2,73</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 22,57</t>
+          <t>-24,14; 9,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 36,78</t>
+          <t>-9,92; 37,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,44; 48,38</t>
+          <t>-13,45; 41,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 26,49</t>
+          <t>-43,3; 17,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,51; 28,86</t>
+          <t>-13,13; 18,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 24,37</t>
+          <t>-20,87; 19,45</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>-30,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>54,63%</t>
+          <t>58,73%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>81,6%</t>
+          <t>52,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>-22,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>59,11%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>36,6%</t>
+          <t>10,11%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 145,74</t>
+          <t>-75,71; 64,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,83; 216,11</t>
+          <t>-35,7; 229,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 297,29</t>
+          <t>-30,44; 223,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,43; 140,49</t>
+          <t>-84,43; 67,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,98; 148,64</t>
+          <t>-39,9; 90,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 124,86</t>
+          <t>-61,13; 87,61</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-8,93</t>
+          <t>-9,08</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-42,69</t>
+          <t>-42,96</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-16,93</t>
+          <t>-17,12</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 11,95</t>
+          <t>-30,59; 11,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-81,63; -2,82</t>
+          <t>-81,78; -3,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-37,23; 0,21</t>
+          <t>-37,11; 0,62</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-37,91%</t>
+          <t>-38,52%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-75,68%</t>
+          <t>-76,16%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-54,24%</t>
+          <t>-54,86%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-84,96; 118,28</t>
+          <t>-85,16; 115,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-96,19; 22,32</t>
+          <t>-96,28; 17,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-82,0; 18,55</t>
+          <t>-82,25; 17,74</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-27,0</t>
+          <t>-27,02</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-28,86</t>
+          <t>-28,92</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-47,57; -6,26</t>
+          <t>-47,53; -5,99</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-63,91; -8,57</t>
+          <t>-63,82; -8,55</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-44,11; -12,65</t>
+          <t>-44,29; -12,84</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-57,62%</t>
+          <t>-57,66%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-56,1%</t>
+          <t>-56,21%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-80,81; -10,73</t>
+          <t>-80,77; -11,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-78,6; -22,81</t>
+          <t>-78,74; -23,74</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-73,75; -27,38</t>
+          <t>-73,97; -28,37</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-7,82</t>
+          <t>-8,1</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-2,97</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 6,86</t>
+          <t>-22,6; 6,36</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 19,12</t>
+          <t>-18,44; 18,7</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 7,8</t>
+          <t>-14,14; 7,39</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-23,9%</t>
+          <t>-24,76%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-7,08%</t>
+          <t>-8,5%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-57,39; 26,85</t>
+          <t>-57,76; 25,53</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-34,15; 68,73</t>
+          <t>-34,74; 67,19</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 27,88</t>
+          <t>-34,42; 26,4</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-14,4</t>
+          <t>-15,22</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-5,66</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 13,32</t>
+          <t>-15,15; 13,45</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-33,36; 14,82</t>
+          <t>-33,8; 13,01</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 9,92</t>
+          <t>-16,21; 8,35</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-9,36%</t>
+          <t>-8,98%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-33,27%</t>
+          <t>-35,16%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-16,65%</t>
+          <t>-17,91%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-50,7; 69,19</t>
+          <t>-50,29; 68,67</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-66,79; 46,76</t>
+          <t>-66,68; 38,75</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-44,97; 38,39</t>
+          <t>-46,3; 33,02</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-7,67</t>
+          <t>-7,2</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-6,25</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-4,9</t>
+          <t>-5,84</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -0,79</t>
+          <t>-13,82; -0,11</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 3,34</t>
+          <t>-19,36; 0,16</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 0,06</t>
+          <t>-11,66; -0,45</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-25,53%</t>
+          <t>-23,97%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-15,25%</t>
+          <t>-21,15%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-14,62%</t>
+          <t>-17,44%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-43,02; -2,96</t>
+          <t>-42,68; -0,51</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 10,06</t>
+          <t>-42,09; 0,35</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 0,59</t>
+          <t>-33,76; -2,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6905-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 27,87</t>
+          <t>-14,93; 28,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 11,72</t>
+          <t>-29,62; 11,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 28,39</t>
+          <t>-30,26; 27,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 27,48</t>
+          <t>-20,49; 31,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,86; 10,75</t>
+          <t>-37,96; 9,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,77; 9,39</t>
+          <t>-40,71; 11,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 23,78</t>
+          <t>-11,22; 24,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 4,6</t>
+          <t>-28,17; 4,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 14,43</t>
+          <t>-26,29; 13,75</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 89,51</t>
+          <t>-29,27; 96,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-58,6; 43,37</t>
+          <t>-56,44; 38,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-53,44; 87,51</t>
+          <t>-61,66; 93,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 56,57</t>
+          <t>-26,74; 65,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,91; 20,52</t>
+          <t>-51,05; 18,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,82; 16,66</t>
+          <t>-56,7; 21,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 57,25</t>
+          <t>-19,94; 59,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 11,04</t>
+          <t>-46,22; 13,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-42,68; 33,96</t>
+          <t>-45,12; 32,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 24,1</t>
+          <t>-11,78; 22,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 22,0</t>
+          <t>-7,42; 21,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 18,71</t>
+          <t>-21,81; 15,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,56; 14,88</t>
+          <t>-25,62; 15,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 37,09</t>
+          <t>-5,21; 36,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,93; 48,83</t>
+          <t>10,66; 49,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 14,52</t>
+          <t>-11,3; 14,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 23,74</t>
+          <t>-0,42; 23,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 28,64</t>
+          <t>-0,34; 27,61</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 163,26</t>
+          <t>-39,21; 151,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,87; 165,15</t>
+          <t>-25,76; 145,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-69,94; 131,52</t>
+          <t>-75,91; 105,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-73,16; 109,86</t>
+          <t>-70,03; 102,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 252,77</t>
+          <t>-14,98; 237,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,44; 326,48</t>
+          <t>22,58; 350,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,31; 77,82</t>
+          <t>-37,93; 81,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 138,57</t>
+          <t>-1,24; 132,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 161,37</t>
+          <t>-1,82; 152,64</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 26,69</t>
+          <t>-19,21; 25,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 6,82</t>
+          <t>-32,45; 10,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-39,21; -6,63</t>
+          <t>-39,69; -6,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 30,21</t>
+          <t>-17,84; 32,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,89; 20,5</t>
+          <t>-25,27; 23,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 17,59</t>
+          <t>-20,89; 17,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 18,98</t>
+          <t>-14,71; 21,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 6,65</t>
+          <t>-24,47; 7,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 0,32</t>
+          <t>-24,79; 1,13</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,49; 193,88</t>
+          <t>-58,2; 186,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 65,75</t>
+          <t>-88,07; 100,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -12,17</t>
+          <t>-100,0; -21,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-76,68; 528,45</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 330,73</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,51; 302,28</t>
+          <t>-61,06; 277,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,96; 130,77</t>
+          <t>-49,93; 157,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-84,61; 52,22</t>
+          <t>-80,12; 79,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,8; 3,85</t>
+          <t>-77,81; 12,82</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 9,31</t>
+          <t>-23,22; 9,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 37,72</t>
+          <t>-6,16; 38,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 37,51</t>
+          <t>-11,68; 37,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 41,38</t>
+          <t>-9,37; 44,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 47,44</t>
+          <t>-4,14; 49,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-43,3; 17,01</t>
+          <t>-43,47; 17,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 18,07</t>
+          <t>-11,54; 18,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 36,32</t>
+          <t>3,89; 37,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 19,45</t>
+          <t>-18,88; 21,23</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-75,71; 64,15</t>
+          <t>-75,16; 61,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 236,57</t>
+          <t>-22,29; 232,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 229,42</t>
+          <t>-39,33; 230,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 223,44</t>
+          <t>-21,28; 306,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 289,78</t>
+          <t>-11,41; 297,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-84,43; 67,55</t>
+          <t>-77,02; 71,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 90,24</t>
+          <t>-34,58; 99,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,75; 180,59</t>
+          <t>6,5; 191,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-61,13; 87,61</t>
+          <t>-52,51; 94,91</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-29,34; 22,41</t>
+          <t>-29,76; 24,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 52,52</t>
+          <t>-13,58; 51,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-30,59; 11,68</t>
+          <t>-30,78; 10,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-35,99; 58,26</t>
+          <t>-36,07; 54,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-38,23; 58,14</t>
+          <t>-36,77; 58,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-81,78; -3,19</t>
+          <t>-80,54; -2,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 33,37</t>
+          <t>-20,04; 31,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 45,35</t>
+          <t>-10,8; 48,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-37,11; 0,62</t>
+          <t>-37,32; 1,63</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 236,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 530,88</t>
+          <t>-47,52; 460,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-85,16; 115,53</t>
+          <t>-86,7; 134,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-46,11; 322,68</t>
+          <t>-46,25; 218,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-52,48; 266,99</t>
+          <t>-49,6; 491,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-96,28; 17,32</t>
+          <t>-94,82; 45,25</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-48,94; 179,54</t>
+          <t>-45,12; 169,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 231,34</t>
+          <t>-27,31; 270,82</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-82,25; 17,74</t>
+          <t>-83,54; 22,8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-44,88; -5,2</t>
+          <t>-44,63; -2,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-52,7; -10,22</t>
+          <t>-52,03; -8,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-47,53; -5,99</t>
+          <t>-47,19; -4,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-68,72; -6,04</t>
+          <t>-72,42; -5,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-62,51; 29,23</t>
+          <t>-58,2; 29,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-63,82; -8,55</t>
+          <t>-66,45; -8,95</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-45,24; -9,88</t>
+          <t>-45,27; -10,73</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-49,42; -7,02</t>
+          <t>-48,55; -6,72</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-44,29; -12,84</t>
+          <t>-45,41; -12,05</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-77,75; -11,69</t>
+          <t>-77,02; -1,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-91,9; -21,31</t>
+          <t>-92,4; -18,12</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-80,77; -11,52</t>
+          <t>-82,29; -12,27</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-90,88; -12,91</t>
+          <t>-90,9; -10,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-81,9; 63,49</t>
+          <t>-80,76; 61,88</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-78,74; -23,74</t>
+          <t>-80,54; -24,39</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-76,38; -21,96</t>
+          <t>-76,62; -24,18</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-84,84; -14,17</t>
+          <t>-83,34; -13,44</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-73,97; -28,37</t>
+          <t>-73,97; -27,48</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 11,93</t>
+          <t>-21,03; 11,19</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-30,6; -2,93</t>
+          <t>-29,19; -2,51</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 6,36</t>
+          <t>-21,65; 8,52</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 25,28</t>
+          <t>-17,18; 24,62</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 16,94</t>
+          <t>-23,5; 17,21</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 18,7</t>
+          <t>-16,28; 18,6</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 13,21</t>
+          <t>-13,41; 12,19</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 0,69</t>
+          <t>-21,31; 1,64</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 7,39</t>
+          <t>-14,83; 7,55</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-54,94; 45,97</t>
+          <t>-55,36; 43,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-75,99; -11,32</t>
+          <t>-73,07; -7,26</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-57,76; 25,53</t>
+          <t>-56,16; 36,14</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-35,75; 92,22</t>
+          <t>-35,19; 86,36</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-44,86; 57,73</t>
+          <t>-45,56; 62,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-34,74; 67,19</t>
+          <t>-32,14; 69,71</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-31,74; 44,45</t>
+          <t>-32,32; 43,71</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-52,83; 4,35</t>
+          <t>-51,98; 6,37</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 26,4</t>
+          <t>-36,72; 26,92</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-24,36; -0,02</t>
+          <t>-25,1; -0,36</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 16,61</t>
+          <t>-14,4; 18,72</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 13,45</t>
+          <t>-15,54; 13,0</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 16,47</t>
+          <t>-29,13; 18,3</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-42,46; -0,24</t>
+          <t>-44,81; 1,02</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 13,01</t>
+          <t>-32,96; 10,23</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 4,07</t>
+          <t>-22,15; 3,25</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 6,02</t>
+          <t>-21,14; 6,52</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 8,35</t>
+          <t>-16,31; 6,94</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-79,58; 5,72</t>
+          <t>-80,69; 5,21</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-50,91; 78,91</t>
+          <t>-48,07; 83,06</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-50,29; 68,67</t>
+          <t>-50,71; 62,15</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-63,38; 47,19</t>
+          <t>-59,56; 50,06</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-86,84; 15,31</t>
+          <t>-89,01; 5,15</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-66,68; 38,75</t>
+          <t>-64,79; 39,85</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-59,48; 15,77</t>
+          <t>-62,08; 11,96</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-58,65; 23,36</t>
+          <t>-60,46; 23,89</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 33,02</t>
+          <t>-47,1; 27,95</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 2,39</t>
+          <t>-10,58; 2,25</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 3,3</t>
+          <t>-9,03; 3,71</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-13,82; -0,11</t>
+          <t>-13,92; -0,03</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 9,7</t>
+          <t>-8,84; 10,02</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 11,88</t>
+          <t>-8,64; 9,98</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 0,16</t>
+          <t>-19,64; -0,22</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 4,38</t>
+          <t>-6,71; 4,73</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 3,96</t>
+          <t>-6,86; 3,86</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-11,66; -0,45</t>
+          <t>-11,82; -1,23</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 8,85</t>
+          <t>-32,03; 9,38</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 12,35</t>
+          <t>-27,52; 13,67</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -0,51</t>
+          <t>-42,66; 0,23</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 26,44</t>
+          <t>-19,12; 27,22</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 32,49</t>
+          <t>-19,22; 27,17</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 0,35</t>
+          <t>-44,15; -1,26</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 14,44</t>
+          <t>-18,97; 15,97</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 12,94</t>
+          <t>-19,16; 12,36</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-33,76; -2,12</t>
+          <t>-32,56; -3,69</t>
         </is>
       </c>
     </row>
